--- a/tests/nrt2/input_nrt2.xlsx
+++ b/tests/nrt2/input_nrt2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VS5997\src\neonat\tests\nrt2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED35692-02B2-40DD-ABB1-0B30051CF5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF37456-8D1E-4340-B03F-2FE89E06FF77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="7764" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="babies" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="41">
   <si>
     <t>services</t>
   </si>
@@ -141,6 +141,15 @@
   </si>
   <si>
     <t>soins,neo</t>
+  </si>
+  <si>
+    <t>bb11</t>
+  </si>
+  <si>
+    <t>r11</t>
+  </si>
+  <si>
+    <t>priority</t>
   </si>
 </sst>
 </file>
@@ -471,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFF5F45-CFAD-4E61-9970-5F5BE534E7C0}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A2" zoomScale="102" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,6 +617,17 @@
         <v>16</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -616,10 +636,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE173FA1-E983-499D-AB64-6CD8215CA3C5}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView zoomScale="103" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,7 +653,7 @@
     <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -655,8 +675,11 @@
       <c r="G1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -676,7 +699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -696,7 +719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -716,7 +739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -736,7 +759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -756,7 +779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -776,7 +799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -796,7 +819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -810,7 +833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -824,7 +847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -838,17 +861,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>24</v>
       </c>
     </row>

--- a/tests/nrt2/input_nrt2.xlsx
+++ b/tests/nrt2/input_nrt2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VS5997\src\neonat\tests\nrt2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF37456-8D1E-4340-B03F-2FE89E06FF77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65520EAC-C3BB-4BE9-AA13-596CFAB4CF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="7764" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="babies" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="42">
   <si>
     <t>services</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>priority</t>
+  </si>
+  <si>
+    <t>treatment</t>
   </si>
 </sst>
 </file>
@@ -480,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFF5F45-CFAD-4E61-9970-5F5BE534E7C0}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="102" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,7 +499,7 @@
     <col min="6" max="6" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -506,8 +509,11 @@
       <c r="C1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -518,7 +524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -529,7 +535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -540,7 +546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -551,7 +557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -562,7 +568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -573,7 +579,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -584,7 +590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -595,7 +601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -606,7 +612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -617,7 +623,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -636,10 +642,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE173FA1-E983-499D-AB64-6CD8215CA3C5}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView zoomScale="103" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -653,7 +659,7 @@
     <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -678,8 +684,11 @@
       <c r="H1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -699,7 +708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -719,7 +728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -739,7 +748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -759,7 +768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -779,7 +788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -799,7 +808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -819,7 +828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -833,7 +842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -847,7 +856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -861,7 +870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -875,7 +884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>

--- a/tests/nrt2/input_nrt2.xlsx
+++ b/tests/nrt2/input_nrt2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VS5997\src\neonat\tests\nrt2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65520EAC-C3BB-4BE9-AA13-596CFAB4CF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B26012-D778-46A9-9754-AA97DD55B6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,9 +89,6 @@
     <t>babies</t>
   </si>
   <si>
-    <t>babies_potential</t>
-  </si>
-  <si>
     <t>old_alloc_list</t>
   </si>
   <si>
@@ -153,6 +150,9 @@
   </si>
   <si>
     <t>treatment</t>
+  </si>
+  <si>
+    <t>babies_service</t>
   </si>
 </sst>
 </file>
@@ -486,7 +486,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,18 +504,18 @@
         <v>19</v>
       </c>
       <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -526,7 +526,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -537,7 +537,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -592,10 +592,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -603,10 +603,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -614,10 +614,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -625,13 +625,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>38</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -661,7 +661,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
@@ -670,22 +670,22 @@
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
         <v>40</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -819,7 +819,7 @@
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
         <v>2</v>
@@ -872,7 +872,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
@@ -892,10 +892,10 @@
         <v>18</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -939,7 +939,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/tests/nrt2/input_nrt2.xlsx
+++ b/tests/nrt2/input_nrt2.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VS5997\src\neonat\tests\nrt2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B26012-D778-46A9-9754-AA97DD55B6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9063E71C-764B-4E85-82F9-D6C105CD8143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="babies" sheetId="2" r:id="rId1"/>
-    <sheet name="rooms" sheetId="3" r:id="rId2"/>
+    <sheet name="beds" sheetId="3" r:id="rId2"/>
     <sheet name="services" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -62,15 +62,9 @@
     <t>r7</t>
   </si>
   <si>
-    <t>new_rooms_service</t>
-  </si>
-  <si>
     <t>out</t>
   </si>
   <si>
-    <t>old_rooms</t>
-  </si>
-  <si>
     <t>r8</t>
   </si>
   <si>
@@ -80,9 +74,6 @@
     <t>r10</t>
   </si>
   <si>
-    <t>new_rooms</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -95,18 +86,9 @@
     <t>going_out</t>
   </si>
   <si>
-    <t>old_rooms_service</t>
-  </si>
-  <si>
     <t>leave_hospital</t>
   </si>
   <si>
-    <t>rooms_capacities</t>
-  </si>
-  <si>
-    <t>all_rooms</t>
-  </si>
-  <si>
     <t>bb1</t>
   </si>
   <si>
@@ -153,6 +135,24 @@
   </si>
   <si>
     <t>babies_service</t>
+  </si>
+  <si>
+    <t>all_beds</t>
+  </si>
+  <si>
+    <t>new_beds</t>
+  </si>
+  <si>
+    <t>old_beds</t>
+  </si>
+  <si>
+    <t>new_beds_service</t>
+  </si>
+  <si>
+    <t>old_beds_service</t>
+  </si>
+  <si>
+    <t>beds_capacities</t>
   </si>
 </sst>
 </file>
@@ -485,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFF5F45-CFAD-4E61-9970-5F5BE534E7C0}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="102" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -501,21 +501,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -526,7 +526,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -537,7 +537,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -592,46 +592,46 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -644,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE173FA1-E983-499D-AB64-6CD8215CA3C5}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView zoomScale="103" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -661,31 +661,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -693,10 +693,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -713,10 +713,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
@@ -733,10 +733,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
@@ -753,10 +753,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
@@ -773,10 +773,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
@@ -793,10 +793,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
@@ -813,13 +813,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
         <v>2</v>
@@ -830,10 +830,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>3</v>
@@ -844,10 +844,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
         <v>3</v>
@@ -858,10 +858,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
         <v>3</v>
@@ -872,10 +872,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
         <v>3</v>
@@ -886,16 +886,16 @@
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -939,7 +939,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
